--- a/Calibration/cal.xlsx
+++ b/Calibration/cal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8175"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>real data</t>
+  </si>
+  <si>
+    <t>adcxx.sum</t>
   </si>
   <si>
     <t>adc value</t>
@@ -682,8 +685,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1004,36 +1012,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.5840707964602" customWidth="1"/>
-    <col min="7" max="7" width="13.6991150442478" customWidth="1"/>
-    <col min="8" max="8" width="13.5309734513274" customWidth="1"/>
+    <col min="1" max="1" width="13.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="10.375"/>
+    <col min="7" max="7" width="9.375"/>
+    <col min="9" max="9" width="15.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="13.5333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" t="s">
+    <row r="1" spans="2:10">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1"/>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -1041,24 +1057,24 @@
       <c r="C2">
         <v>24</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>1483</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>2969</v>
       </c>
-      <c r="G2">
-        <f>(B2-C2)/(D2-E2)</f>
+      <c r="I2">
+        <f>(B2-C2)/(F2-G2)</f>
         <v>0.00807537012113055</v>
       </c>
-      <c r="H2">
-        <f>B2-G2*D2</f>
+      <c r="J2">
+        <f>B2-I2*F2</f>
         <v>0.0242261103633918</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -1066,24 +1082,24 @@
       <c r="C3">
         <v>28.8</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>1477</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>3552</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G14" si="0">(B3-C3)/(D3-E3)</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I14" si="0">(B3-C3)/(F3-G3)</f>
         <v>0.00809638554216868</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H14" si="1">B3-G3*D3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J14" si="1">B3-I3*F3</f>
         <v>0.0416385542168669</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1091,24 +1107,24 @@
       <c r="C5">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>1995.4</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>1648.7</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G7" si="2">(B5-C5)/(D5-E5)</f>
+      <c r="I5">
+        <f t="shared" ref="I5:I7" si="2">(B5-C5)/(F5-G5)</f>
         <v>-0.0201903663109316</v>
       </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H6" si="3">B5-G5*D5</f>
+      <c r="J5">
+        <f t="shared" ref="J5:J6" si="3">B5-I5*F5</f>
         <v>41.287856936833</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1116,24 +1132,24 @@
       <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>1994.3</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>1647.9</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <f t="shared" si="2"/>
         <v>-0.0202078521939954</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <f t="shared" si="3"/>
         <v>41.300519630485</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1141,151 +1157,233 @@
       <c r="C7">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>1994.6</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1648.4</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <f t="shared" si="2"/>
         <v>-0.0202195262853842</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <f t="shared" si="1"/>
         <v>41.3298671288273</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="e">
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>11.99</v>
+      </c>
+      <c r="C9" s="4">
+        <v>24.02</v>
+      </c>
+      <c r="D9" s="4">
+        <v>11710</v>
+      </c>
+      <c r="E9" s="4">
+        <v>23500</v>
+      </c>
+      <c r="F9" s="4">
+        <f>D9/8</f>
+        <v>1463.75</v>
+      </c>
+      <c r="G9" s="4">
+        <f>E9/8</f>
+        <v>2937.5</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <f>(B9-C9)/(F9-G9)</f>
+        <v>0.00816284987277354</v>
+      </c>
+      <c r="J9" s="4">
+        <f>B9-I9*F9</f>
+        <v>0.0416284987277358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>11.99</v>
+      </c>
+      <c r="C10" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>11507.5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>28107.8</v>
+      </c>
+      <c r="F10" s="4">
+        <f>D10/8</f>
+        <v>1438.4375</v>
+      </c>
+      <c r="G10" s="4">
+        <f>E10/8</f>
+        <v>3513.475</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.00810105841460697</v>
+      </c>
+      <c r="J10" s="4">
+        <f>B10-I10*F10</f>
+        <v>0.337133786738793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <f>D11/8</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f>E11/8</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="1" t="e">
+      <c r="J11" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>11.99</v>
-      </c>
-      <c r="C9" s="1">
-        <v>23.99</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1463.65</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2932.6</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>16763</v>
+      </c>
+      <c r="E12" s="4">
+        <v>18346</v>
+      </c>
+      <c r="F12" s="4">
+        <f>D12/8</f>
+        <v>2095.375</v>
+      </c>
+      <c r="G12" s="4">
+        <f>E12/8</f>
+        <v>2293.25</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
         <f t="shared" si="0"/>
-        <v>0.00816910037782089</v>
-      </c>
-      <c r="H9" s="1">
+        <v>0.0202147820593809</v>
+      </c>
+      <c r="J12" s="4">
         <f t="shared" si="1"/>
-        <v>0.0332962320024492</v>
+        <v>-41.3575489576753</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="e">
+      <c r="D13" s="4">
+        <v>16765</v>
+      </c>
+      <c r="E13" s="4">
+        <v>18332</v>
+      </c>
+      <c r="F13" s="4">
+        <f>D13/8</f>
+        <v>2095.625</v>
+      </c>
+      <c r="G13" s="4">
+        <f>E13/8</f>
+        <v>2291.5</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="1" t="e">
+        <v>0.0204211869814933</v>
+      </c>
+      <c r="J13" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-41.7951499680919</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="e">
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>15963</v>
+      </c>
+      <c r="E14" s="4">
+        <v>14386</v>
+      </c>
+      <c r="F14" s="4">
+        <f>D14/8</f>
+        <v>1995.375</v>
+      </c>
+      <c r="G14" s="4">
+        <f>E14/8</f>
+        <v>1798.25</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="1" t="e">
+        <v>-0.020291693088142</v>
+      </c>
+      <c r="J14" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>41.4895370957514</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Calibration/cal.xlsx
+++ b/Calibration/cal.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>real data</t>
   </si>
@@ -58,6 +58,12 @@
   <si>
     <t>IBConvert</t>
   </si>
+  <si>
+    <t>ID=101</t>
+  </si>
+  <si>
+    <t>ID=102</t>
+  </si>
 </sst>
 </file>
 
@@ -69,10 +75,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -222,12 +235,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -555,55 +574,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,81 +634,85 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1012,10 +1032,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1173,19 +1193,21 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4">
@@ -1194,18 +1216,18 @@
       <c r="C9" s="4">
         <v>24.02</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>11710</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>23500</v>
       </c>
       <c r="F9" s="4">
-        <f>D9/8</f>
+        <f t="shared" ref="F9:F14" si="4">D9/8</f>
         <v>1463.75</v>
       </c>
       <c r="G9" s="4">
-        <f>E9/8</f>
+        <f t="shared" ref="G9:G14" si="5">E9/8</f>
         <v>2937.5</v>
       </c>
       <c r="H9" s="4"/>
@@ -1219,7 +1241,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4">
@@ -1228,18 +1250,18 @@
       <c r="C10" s="4">
         <v>28.8</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>11507.5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>28107.8</v>
       </c>
       <c r="F10" s="4">
-        <f>D10/8</f>
+        <f t="shared" si="4"/>
         <v>1438.4375</v>
       </c>
       <c r="G10" s="4">
-        <f>E10/8</f>
+        <f t="shared" si="5"/>
         <v>3513.475</v>
       </c>
       <c r="H10" s="4"/>
@@ -1253,17 +1275,17 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="4">
-        <f>D11/8</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <f>E11/8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H11" s="4"/>
@@ -1277,7 +1299,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="4">
@@ -1286,18 +1308,18 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>16763</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>18346</v>
       </c>
       <c r="F12" s="4">
-        <f>D12/8</f>
+        <f t="shared" si="4"/>
         <v>2095.375</v>
       </c>
       <c r="G12" s="4">
-        <f>E12/8</f>
+        <f t="shared" si="5"/>
         <v>2293.25</v>
       </c>
       <c r="H12" s="4"/>
@@ -1311,7 +1333,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="4">
@@ -1320,18 +1342,18 @@
       <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>16765</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>18332</v>
       </c>
       <c r="F13" s="4">
-        <f>D13/8</f>
+        <f t="shared" si="4"/>
         <v>2095.625</v>
       </c>
       <c r="G13" s="4">
-        <f>E13/8</f>
+        <f t="shared" si="5"/>
         <v>2291.5</v>
       </c>
       <c r="H13" s="4"/>
@@ -1345,7 +1367,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4">
@@ -1354,18 +1376,18 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>15963</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>14386</v>
       </c>
       <c r="F14" s="4">
-        <f>D14/8</f>
+        <f t="shared" si="4"/>
         <v>1995.375</v>
       </c>
       <c r="G14" s="4">
-        <f>E14/8</f>
+        <f t="shared" si="5"/>
         <v>1798.25</v>
       </c>
       <c r="H14" s="4"/>
@@ -1376,6 +1398,205 @@
       <c r="J14" s="4">
         <f t="shared" si="1"/>
         <v>41.4895370957514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5">
+        <v>12745</v>
+      </c>
+      <c r="E16" s="5">
+        <v>23580</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" ref="F16:F21" si="6">D16/8</f>
+        <v>1593.125</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" ref="G16:G21" si="7">E16/8</f>
+        <v>2947.5</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
+        <f t="shared" ref="I16:I21" si="8">(B16-C16)/(F16-G16)</f>
+        <v>0.00812182741116751</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" ref="J16:J21" si="9">B16-I16*F16</f>
+        <v>0.0609137055837561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
+        <v>24</v>
+      </c>
+      <c r="D17" s="5">
+        <v>12660</v>
+      </c>
+      <c r="E17" s="5">
+        <v>23415</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="6"/>
+        <v>1582.5</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="7"/>
+        <v>2926.875</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
+        <f t="shared" si="8"/>
+        <v>0.00818224081822408</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="9"/>
+        <v>0.0516039051603894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1.001</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5.009</v>
+      </c>
+      <c r="D19" s="5">
+        <v>16768</v>
+      </c>
+      <c r="E19" s="5">
+        <v>18345</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="6"/>
+        <v>2096</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="7"/>
+        <v>2293.125</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <f t="shared" si="8"/>
+        <v>0.0203322764743183</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="9"/>
+        <v>-41.6154514901712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1.004</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5.005</v>
+      </c>
+      <c r="D20" s="5">
+        <v>16767</v>
+      </c>
+      <c r="E20" s="5">
+        <v>18331</v>
+      </c>
+      <c r="F20" s="4">
+        <f>D20/8</f>
+        <v>2095.875</v>
+      </c>
+      <c r="G20" s="4">
+        <f>E20/8</f>
+        <v>2291.375</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.02046547314578</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="9"/>
+        <v>-41.8890735294118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5">
+        <v>15962</v>
+      </c>
+      <c r="E21" s="5">
+        <v>14390</v>
+      </c>
+      <c r="F21" s="4">
+        <f>D21/8</f>
+        <v>1995.25</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E21/8</f>
+        <v>1798.75</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
+        <f t="shared" si="8"/>
+        <v>-0.0203562340966921</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="9"/>
+        <v>41.6157760814249</v>
       </c>
     </row>
   </sheetData>

--- a/Calibration/cal.xlsx
+++ b/Calibration/cal.xlsx
@@ -53,7 +53,7 @@
     <t>IAConvert</t>
   </si>
   <si>
-    <t>Ijudge</t>
+    <t>Ireferee</t>
   </si>
   <si>
     <t>IBConvert</t>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1333,7 +1333,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="4">
@@ -1532,7 +1532,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="4">
@@ -1548,11 +1548,11 @@
         <v>18331</v>
       </c>
       <c r="F20" s="4">
-        <f>D20/8</f>
+        <f t="shared" si="6"/>
         <v>2095.875</v>
       </c>
       <c r="G20" s="4">
-        <f>E20/8</f>
+        <f t="shared" si="7"/>
         <v>2291.375</v>
       </c>
       <c r="H20" s="4"/>
@@ -1582,11 +1582,11 @@
         <v>14390</v>
       </c>
       <c r="F21" s="4">
-        <f>D21/8</f>
+        <f t="shared" si="6"/>
         <v>1995.25</v>
       </c>
       <c r="G21" s="4">
-        <f>E21/8</f>
+        <f t="shared" si="7"/>
         <v>1798.75</v>
       </c>
       <c r="H21" s="4"/>

--- a/Calibration/cal.xlsx
+++ b/Calibration/cal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="19200" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>real data</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>ID=102</t>
+  </si>
+  <si>
+    <t>ID=201</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1599,6 +1602,205 @@
         <v>41.6157760814249</v>
       </c>
     </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4">
+        <v>24</v>
+      </c>
+      <c r="D23" s="5">
+        <v>12620</v>
+      </c>
+      <c r="E23" s="5">
+        <v>23450</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" ref="F23:F28" si="10">D23/8</f>
+        <v>1577.5</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" ref="G23:G28" si="11">E23/8</f>
+        <v>2931.25</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4">
+        <f t="shared" ref="I23:I28" si="12">(B23-C23)/(F23-G23)</f>
+        <v>0.00812557710064635</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" ref="J23:J28" si="13">B23-I23*F23</f>
+        <v>0.18190212373038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4">
+        <v>24</v>
+      </c>
+      <c r="D24" s="5">
+        <v>12790</v>
+      </c>
+      <c r="E24" s="5">
+        <v>23570</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="10"/>
+        <v>1598.75</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="11"/>
+        <v>2946.25</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
+        <f t="shared" si="12"/>
+        <v>0.00816326530612245</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="13"/>
+        <v>-0.0510204081632661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.997</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5.005</v>
+      </c>
+      <c r="D26" s="5">
+        <v>16775</v>
+      </c>
+      <c r="E26" s="5">
+        <v>18355</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="10"/>
+        <v>2096.875</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="11"/>
+        <v>2294.375</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4">
+        <f t="shared" si="12"/>
+        <v>0.0202936708860759</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="13"/>
+        <v>-41.5562911392405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1.003</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5.003</v>
+      </c>
+      <c r="D27" s="5">
+        <v>16770</v>
+      </c>
+      <c r="E27" s="5">
+        <v>18330</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="10"/>
+        <v>2096.25</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="11"/>
+        <v>2291.25</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4">
+        <f t="shared" si="12"/>
+        <v>0.0205128205128205</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="13"/>
+        <v>-41.997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5">
+        <v>15965</v>
+      </c>
+      <c r="E28" s="5">
+        <v>14390</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="10"/>
+        <v>1995.625</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="11"/>
+        <v>1798.75</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.0203174603174603</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="13"/>
+        <v>41.5460317460317</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>

--- a/Calibration/cal.xlsx
+++ b/Calibration/cal.xlsx
@@ -1037,7 +1037,7 @@
   <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -1214,33 +1214,33 @@
         <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>11.99</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4">
-        <v>24.02</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5">
-        <v>11710</v>
+        <v>13690</v>
       </c>
       <c r="E9" s="5">
-        <v>23500</v>
+        <v>23480</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ref="F9:F14" si="4">D9/8</f>
-        <v>1463.75</v>
+        <v>1711.25</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" ref="G9:G14" si="5">E9/8</f>
-        <v>2937.5</v>
+        <v>2935</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
         <f>(B9-C9)/(F9-G9)</f>
-        <v>0.00816284987277354</v>
+        <v>0.00817160367722165</v>
       </c>
       <c r="J9" s="4">
         <f>B9-I9*F9</f>
-        <v>0.0416284987277358</v>
+        <v>0.0163432073544421</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1248,33 +1248,33 @@
         <v>6</v>
       </c>
       <c r="B10" s="4">
-        <v>11.99</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4">
-        <v>28.8</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5">
-        <v>11507.5</v>
+        <v>13790</v>
       </c>
       <c r="E10" s="5">
-        <v>28107.8</v>
+        <v>23670</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="4"/>
-        <v>1438.4375</v>
+        <v>1723.75</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="5"/>
-        <v>3513.475</v>
+        <v>2958.75</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>0.00810105841460697</v>
+        <v>0.00809716599190283</v>
       </c>
       <c r="J10" s="4">
         <f>B10-I10*F10</f>
-        <v>0.337133786738793</v>
+        <v>0.0425101214574894</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1306,33 +1306,33 @@
         <v>7</v>
       </c>
       <c r="B12" s="4">
-        <v>1</v>
+        <v>1.004</v>
       </c>
       <c r="C12" s="4">
-        <v>5</v>
+        <v>3.002</v>
       </c>
       <c r="D12" s="5">
-        <v>16763</v>
+        <v>16776</v>
       </c>
       <c r="E12" s="5">
-        <v>18346</v>
+        <v>17560</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="4"/>
-        <v>2095.375</v>
+        <v>2097</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="5"/>
-        <v>2293.25</v>
+        <v>2195</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
-        <v>0.0202147820593809</v>
+        <v>0.0203877551020408</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="1"/>
-        <v>-41.3575489576753</v>
+        <v>-41.7491224489796</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1343,13 +1343,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5">
         <v>16765</v>
       </c>
       <c r="E13" s="5">
-        <v>18332</v>
+        <v>17545</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="4"/>
@@ -1357,16 +1357,16 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
-        <v>2291.5</v>
+        <v>2193.125</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
-        <v>0.0204211869814933</v>
+        <v>0.0205128205128205</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="1"/>
-        <v>-41.7951499680919</v>
+        <v>-41.9871794871795</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1377,30 +1377,30 @@
         <v>1</v>
       </c>
       <c r="C14" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="5">
-        <v>15963</v>
+        <v>15970</v>
       </c>
       <c r="E14" s="5">
-        <v>14386</v>
+        <v>15180</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="4"/>
-        <v>1995.375</v>
+        <v>1996.25</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="5"/>
-        <v>1798.25</v>
+        <v>1897.5</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4">
         <f t="shared" si="0"/>
-        <v>-0.020291693088142</v>
+        <v>-0.020253164556962</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
-        <v>41.4895370957514</v>
+        <v>41.4303797468354</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -1612,33 +1612,33 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="4">
         <v>24</v>
       </c>
       <c r="D23" s="5">
-        <v>12620</v>
+        <v>13830</v>
       </c>
       <c r="E23" s="5">
-        <v>23450</v>
+        <v>23735</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ref="F23:F28" si="10">D23/8</f>
-        <v>1577.5</v>
+        <v>1728.75</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" ref="G23:G28" si="11">E23/8</f>
-        <v>2931.25</v>
+        <v>2966.875</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4">
         <f t="shared" ref="I23:I28" si="12">(B23-C23)/(F23-G23)</f>
-        <v>0.00812557710064635</v>
+        <v>0.00807672892478546</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" ref="J23:J28" si="13">B23-I23*F23</f>
-        <v>0.18190212373038</v>
+        <v>0.0373548712771328</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1646,33 +1646,33 @@
         <v>6</v>
       </c>
       <c r="B24" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" s="4">
         <v>24</v>
       </c>
       <c r="D24" s="5">
-        <v>12790</v>
+        <v>13750</v>
       </c>
       <c r="E24" s="5">
-        <v>23570</v>
+        <v>23600</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="10"/>
-        <v>1598.75</v>
+        <v>1718.75</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="11"/>
-        <v>2946.25</v>
+        <v>2950</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4">
         <f t="shared" si="12"/>
-        <v>0.00816326530612245</v>
+        <v>0.00812182741116751</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="13"/>
-        <v>-0.0510204081632661</v>
+        <v>0.0406091370558368</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1704,33 +1704,33 @@
         <v>7</v>
       </c>
       <c r="B26" s="4">
-        <v>0.997</v>
+        <v>1.004</v>
       </c>
       <c r="C26" s="4">
-        <v>5.005</v>
+        <v>3</v>
       </c>
       <c r="D26" s="5">
-        <v>16775</v>
+        <v>16764</v>
       </c>
       <c r="E26" s="5">
-        <v>18355</v>
+        <v>17558</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="10"/>
-        <v>2096.875</v>
+        <v>2095.5</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="11"/>
-        <v>2294.375</v>
+        <v>2194.75</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4">
         <f t="shared" si="12"/>
-        <v>0.0202936708860759</v>
+        <v>0.0201108312342569</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="13"/>
-        <v>-41.5562911392405</v>
+        <v>-41.1382468513854</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1738,33 +1738,33 @@
         <v>8</v>
       </c>
       <c r="B27" s="4">
-        <v>1.003</v>
+        <v>1</v>
       </c>
       <c r="C27" s="4">
-        <v>5.003</v>
+        <v>3</v>
       </c>
       <c r="D27" s="5">
-        <v>16770</v>
+        <v>16760</v>
       </c>
       <c r="E27" s="5">
-        <v>18330</v>
+        <v>17545</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="10"/>
-        <v>2096.25</v>
+        <v>2095</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="11"/>
-        <v>2291.25</v>
+        <v>2193.125</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4">
         <f t="shared" si="12"/>
-        <v>0.0205128205128205</v>
+        <v>0.0203821656050955</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="13"/>
-        <v>-41.997</v>
+        <v>-41.7006369426752</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1775,13 +1775,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="5">
         <v>15965</v>
       </c>
       <c r="E28" s="5">
-        <v>14390</v>
+        <v>15175</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="10"/>
@@ -1789,16 +1789,16 @@
       </c>
       <c r="G28" s="4">
         <f t="shared" si="11"/>
-        <v>1798.75</v>
+        <v>1896.875</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4">
         <f t="shared" si="12"/>
-        <v>-0.0203174603174603</v>
+        <v>-0.020253164556962</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="13"/>
-        <v>41.5460317460317</v>
+        <v>41.4177215189873</v>
       </c>
     </row>
   </sheetData>
